--- a/st00.docs/html&css정리.20190615.xlsx
+++ b/st00.docs/html&css정리.20190615.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -1598,16 +1598,6 @@
   </si>
   <si>
     <t>마지막 태그를 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-radius: 10px 0 0 10px;
-border-top-left-radius: 10px;
-border-top-right-radius: 0;
-border-bottom-right-radius: 0;
-border-bottom-left-radius: 10px;
-border-radius: 10px 0; &lt;-- 10px 0 10px 0;
-border-radius: 5px; &lt;-- 5px 5px 5px 5px;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2116,6 +2106,16 @@
     <t>alt="임의"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>border-radius: 10px 0 0 10px;
+border-top-left-radius: 10px;
+border-top-right-radius: 0;
+border-bottom-right-radius: 0;
+border-bottom-left-radius: 10px;
+border-radius: 10px 0; &lt;-- 10px 0 10px 0;
+border-radius: 5px; &lt;-- 5px 5px 5px 5px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2124,7 +2124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000\-000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2769,6 +2769,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2781,26 +2790,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2817,25 +2850,10 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2847,32 +2865,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3284,7 +3284,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3180564</xdr:colOff>
+      <xdr:colOff>4495014</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>203108</xdr:rowOff>
     </xdr:from>
@@ -3310,7 +3310,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3428214" y="7537358"/>
+          <a:off x="10895814" y="18929258"/>
           <a:ext cx="2431295" cy="1559287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3726,21 +3726,21 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>87</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="39" t="s">
         <v>84</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
         <v>88</v>
       </c>
@@ -3760,28 +3760,28 @@
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
         <v>103</v>
       </c>
@@ -3792,8 +3792,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3803,8 +3803,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="93"/>
       <c r="B11" s="14" t="s">
         <v>78</v>
       </c>
@@ -3812,8 +3812,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
+    <row r="12" spans="1:3">
+      <c r="A12" s="94"/>
       <c r="B12" s="14" t="s">
         <v>114</v>
       </c>
@@ -3821,27 +3821,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:3" ht="66">
+      <c r="A13" s="95" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="66">
+      <c r="A14" s="94"/>
       <c r="B14" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="99">
       <c r="A15" s="44" t="s">
         <v>1</v>
       </c>
@@ -3849,10 +3849,10 @@
         <v>81</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="44" t="s">
         <v>117</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="33">
       <c r="A17" s="44" t="s">
         <v>2</v>
       </c>
@@ -3874,8 +3874,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="92" t="s">
+    <row r="18" spans="1:7" ht="49.5">
+      <c r="A18" s="95" t="s">
         <v>118</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -3885,8 +3885,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
+    <row r="19" spans="1:7" ht="33">
+      <c r="A19" s="94"/>
       <c r="B19" s="38" t="s">
         <v>109</v>
       </c>
@@ -3894,29 +3894,29 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="47.25" customHeight="1">
       <c r="A20" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="92" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="95" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="94"/>
       <c r="G21" s="45"/>
     </row>
-    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+    <row r="22" spans="1:7" ht="33">
+      <c r="A22" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -3926,8 +3926,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
+    <row r="23" spans="1:7" ht="33">
+      <c r="A23" s="94"/>
       <c r="B23" s="43" t="s">
         <v>100</v>
       </c>
@@ -3935,8 +3935,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="95" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -3946,8 +3946,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="93"/>
       <c r="B25" s="14" t="s">
         <v>95</v>
       </c>
@@ -3955,8 +3955,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="93"/>
       <c r="B26" s="14" t="s">
         <v>96</v>
       </c>
@@ -3964,8 +3964,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="93"/>
       <c r="B27" s="14" t="s">
         <v>123</v>
       </c>
@@ -3973,8 +3973,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="90"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="93"/>
       <c r="B28" s="14" t="s">
         <v>97</v>
       </c>
@@ -3982,8 +3982,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="94"/>
       <c r="B29" s="14" t="s">
         <v>98</v>
       </c>
@@ -4010,11 +4010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -4027,180 +4027,180 @@
     <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:11" ht="26.25">
+      <c r="A2" s="98" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25">
+      <c r="A4" s="97" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25">
+      <c r="A5" s="90" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="C5" s="90" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>445</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>446</v>
+      </c>
+      <c r="G5" s="90" t="s">
+        <v>447</v>
+      </c>
+      <c r="H5" s="90" t="s">
+        <v>448</v>
+      </c>
+      <c r="I5" s="90" t="s">
+        <v>449</v>
+      </c>
+      <c r="J5" s="90" t="s">
+        <v>450</v>
+      </c>
+      <c r="K5" s="90"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="119" t="s">
-        <v>438</v>
-      </c>
-      <c r="B5" s="119" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" s="119" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="119" t="s">
-        <v>446</v>
-      </c>
-      <c r="E5" s="119" t="s">
-        <v>445</v>
-      </c>
-      <c r="F5" s="119" t="s">
-        <v>447</v>
-      </c>
-      <c r="G5" s="119" t="s">
-        <v>448</v>
-      </c>
-      <c r="H5" s="119" t="s">
-        <v>449</v>
-      </c>
-      <c r="I5" s="119" t="s">
-        <v>450</v>
-      </c>
-      <c r="J5" s="119" t="s">
-        <v>451</v>
-      </c>
-      <c r="K5" s="119"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="B6" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="123" t="s">
+      <c r="B7" s="91" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>462</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B7" s="123" t="s">
-        <v>460</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>463</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="H7" s="123" t="s">
-        <v>466</v>
+        <v>456</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>465</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="14" t="s">
         <v>458</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>459</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -4211,13 +4211,13 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -4228,16 +4228,16 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
-        <v>452</v>
-      </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
+    <row r="13" spans="1:11" ht="20.25">
+      <c r="A13" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4256,11 +4256,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D57"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.125" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="49" bestFit="1" customWidth="1"/>
@@ -4269,7 +4269,7 @@
     <col min="5" max="16384" width="86.625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="52" t="s">
         <v>141</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="51" t="s">
         <v>216</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="73" t="s">
         <v>213</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="73" t="s">
         <v>381</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="73" t="s">
         <v>380</v>
       </c>
@@ -4339,29 +4339,29 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
-        <v>401</v>
-      </c>
-      <c r="B7" s="93" t="s">
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="105" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="99" t="s">
         <v>202</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
+    <row r="8" spans="1:4" ht="27">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="51" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="81" t="s">
         <v>177</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="81" t="s">
         <v>173</v>
       </c>
@@ -4389,18 +4389,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="61"/>
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="52" t="s">
         <v>201</v>
       </c>
@@ -4414,12 +4414,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="102" t="s">
         <v>200</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>199</v>
@@ -4428,10 +4428,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="96"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="103"/>
       <c r="B15" s="78" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>197</v>
@@ -4440,8 +4440,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="103"/>
       <c r="B16" s="51" t="s">
         <v>195</v>
       </c>
@@ -4452,8 +4452,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="103"/>
       <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
@@ -4464,79 +4464,79 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="94" t="s">
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="103"/>
+      <c r="B18" s="99" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="99" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="94"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="103"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="94"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="94" t="s">
+      <c r="D19" s="99"/>
+    </row>
+    <row r="20" spans="1:4" ht="27">
+      <c r="A20" s="103"/>
+      <c r="B20" s="99" t="s">
         <v>185</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="99" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
-      <c r="B21" s="94"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="103"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="94"/>
-    </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
-      <c r="B22" s="94" t="s">
+      <c r="D21" s="99"/>
+    </row>
+    <row r="22" spans="1:4" ht="27">
+      <c r="A22" s="103"/>
+      <c r="B22" s="99" t="s">
         <v>181</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="99" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
-      <c r="B23" s="94"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="104"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="94"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="99"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="60"/>
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="59"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
       <c r="D25" s="58"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="52" t="s">
         <v>141</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="73" t="s">
         <v>177</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="73" t="s">
         <v>173</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="51" t="s">
         <v>169</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="51" t="s">
         <v>167</v>
       </c>
@@ -4598,7 +4598,7 @@
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="52" t="s">
         <v>165</v>
       </c>
@@ -4612,26 +4612,26 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="94" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="99"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
+      <c r="D34" s="101"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="99"/>
       <c r="B36" s="51" t="s">
         <v>161</v>
       </c>
@@ -4640,8 +4640,8 @@
       </c>
       <c r="D36" s="53"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="94"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="99"/>
       <c r="B37" s="51" t="s">
         <v>159</v>
       </c>
@@ -4650,8 +4650,8 @@
       </c>
       <c r="D37" s="53"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="99"/>
       <c r="B38" s="57" t="s">
         <v>157</v>
       </c>
@@ -4660,14 +4660,14 @@
       </c>
       <c r="D38" s="53"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="99"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="53"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="99"/>
       <c r="B40" s="54" t="s">
         <v>155</v>
       </c>
@@ -4676,8 +4676,8 @@
       </c>
       <c r="D40" s="53"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="94"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="99"/>
       <c r="B41" s="54" t="s">
         <v>154</v>
       </c>
@@ -4686,18 +4686,18 @@
       </c>
       <c r="D41" s="53"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="94"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="99"/>
       <c r="B42" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C42" s="77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D42" s="53"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="94"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="99"/>
       <c r="B43" s="51" t="s">
         <v>153</v>
       </c>
@@ -4706,8 +4706,8 @@
       </c>
       <c r="D43" s="53"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="94"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="99"/>
       <c r="B44" s="51" t="s">
         <v>151</v>
       </c>
@@ -4716,14 +4716,14 @@
       </c>
       <c r="D44" s="53"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="94"/>
+    <row r="45" spans="1:4">
+      <c r="A45" s="99"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="94"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="99"/>
       <c r="B46" s="54" t="s">
         <v>149</v>
       </c>
@@ -4731,11 +4731,11 @@
         <v>148</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="94"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="99"/>
       <c r="B47" s="86" t="s">
         <v>147</v>
       </c>
@@ -4743,11 +4743,11 @@
         <v>146</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="94"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="99"/>
       <c r="B48" s="54" t="s">
         <v>145</v>
       </c>
@@ -4756,8 +4756,8 @@
       </c>
       <c r="D48" s="53"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="94"/>
+    <row r="49" spans="1:4">
+      <c r="A49" s="99"/>
       <c r="B49" s="54" t="s">
         <v>143</v>
       </c>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="D49" s="53"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="52" t="s">
         <v>141</v>
       </c>
@@ -4780,8 +4780,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="95" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="102" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="51" t="s">
@@ -4794,44 +4794,44 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="103"/>
       <c r="B54" s="85" t="s">
         <v>133</v>
       </c>
       <c r="C54" s="85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D54" s="85" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="96"/>
+    <row r="55" spans="1:4">
+      <c r="A55" s="103"/>
       <c r="B55" s="51" t="s">
         <v>131</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="96"/>
+    <row r="56" spans="1:4">
+      <c r="A56" s="103"/>
       <c r="B56" s="51" t="s">
         <v>130</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="97"/>
+    <row r="57" spans="1:4">
+      <c r="A57" s="104"/>
       <c r="B57" s="51" t="s">
         <v>128</v>
       </c>
@@ -4844,11 +4844,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4859,6 +4854,11 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4870,11 +4870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="C76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
@@ -4885,18 +4885,18 @@
     <col min="13" max="13" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="23"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:8" ht="36" customHeight="1">
+      <c r="A2" s="106" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>378</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -4906,12 +4906,12 @@
         <v>375</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="81" customHeight="1">
       <c r="A3" s="107"/>
-      <c r="B3" s="105"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="18" t="s">
         <v>374</v>
       </c>
@@ -4922,9 +4922,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="42.75">
       <c r="A4" s="107"/>
-      <c r="B4" s="105"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="5" t="s">
         <v>371</v>
       </c>
@@ -4935,9 +4935,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="57">
       <c r="A5" s="107"/>
-      <c r="B5" s="105"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="5" t="s">
         <v>368</v>
       </c>
@@ -4948,9 +4948,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="107"/>
-      <c r="B6" s="105"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="5" t="s">
         <v>365</v>
       </c>
@@ -4959,57 +4959,57 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42.75" customHeight="1">
       <c r="A7" s="107"/>
-      <c r="B7" s="105"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="72" t="s">
         <v>377</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="86.25" customHeight="1">
       <c r="A8" s="107"/>
-      <c r="B8" s="105"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E8" s="87" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42.75">
       <c r="A9" s="107"/>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="109" t="s">
         <v>363</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>362</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="57">
       <c r="A10" s="107"/>
-      <c r="B10" s="105"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="80" t="s">
         <v>361</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>360</v>
@@ -5017,14 +5017,14 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="42.75">
       <c r="A11" s="107"/>
-      <c r="B11" s="105"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="19" t="s">
         <v>359</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>358</v>
@@ -5032,9 +5032,9 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="107"/>
-      <c r="B12" s="105"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="4" t="s">
         <v>357</v>
       </c>
@@ -5045,9 +5045,9 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="107"/>
-      <c r="B13" s="105"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
@@ -5058,9 +5058,9 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="107"/>
-      <c r="B14" s="105"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="19" t="s">
         <v>354</v>
       </c>
@@ -5068,14 +5068,14 @@
         <v>353</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="28.5">
       <c r="A15" s="107"/>
-      <c r="B15" s="105"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
@@ -5088,9 +5088,9 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="107"/>
-      <c r="B16" s="105"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5" t="s">
         <v>352</v>
       </c>
@@ -5101,9 +5101,9 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="107"/>
-      <c r="B17" s="105"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="4" t="s">
         <v>350</v>
       </c>
@@ -5112,9 +5112,9 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="107"/>
-      <c r="B18" s="105"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="5" t="s">
         <v>348</v>
       </c>
@@ -5125,44 +5125,44 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="107"/>
-      <c r="B19" s="105"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="7" t="s">
         <v>343</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="107"/>
-      <c r="B20" s="105"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="7" t="s">
         <v>342</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="28.5">
       <c r="A21" s="107"/>
-      <c r="B21" s="105"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="57">
       <c r="A22" s="107"/>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="109" t="s">
         <v>340</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -5175,9 +5175,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="107"/>
-      <c r="B23" s="105"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="5" t="s">
         <v>337</v>
       </c>
@@ -5188,9 +5188,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28.5">
       <c r="A24" s="107"/>
-      <c r="B24" s="105"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="5" t="s">
         <v>334</v>
       </c>
@@ -5201,9 +5201,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="57">
       <c r="A25" s="108"/>
-      <c r="B25" s="105"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="18" t="s">
         <v>331</v>
       </c>
@@ -5214,14 +5214,14 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="68"/>
       <c r="B26" s="68"/>
       <c r="C26" s="67"/>
       <c r="D26" s="66"/>
       <c r="E26" s="65"/>
     </row>
-    <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="209.25" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="47" t="s">
         <v>328</v>
@@ -5230,11 +5230,11 @@
       <c r="D27" s="26"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A28" s="109" t="s">
+    <row r="28" spans="1:5" ht="71.25">
+      <c r="A28" s="110" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="110" t="s">
         <v>326</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -5244,12 +5244,12 @@
         <v>324</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="114">
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="5" t="s">
         <v>323</v>
       </c>
@@ -5257,12 +5257,12 @@
         <v>322</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="85.5">
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="5" t="s">
         <v>321</v>
       </c>
@@ -5270,34 +5270,34 @@
         <v>320</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="103" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="115" t="s">
         <v>318</v>
       </c>
       <c r="E31" s="18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="42.75">
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="63" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="63" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="5" t="s">
         <v>317</v>
       </c>
@@ -5306,9 +5306,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="5" t="s">
         <v>315</v>
       </c>
@@ -5317,9 +5317,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
+    <row r="35" spans="1:5">
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="5" t="s">
         <v>313</v>
       </c>
@@ -5328,9 +5328,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="5" t="s">
         <v>311</v>
       </c>
@@ -5339,9 +5339,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
+    <row r="37" spans="1:5" ht="114">
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="18" t="s">
         <v>309</v>
       </c>
@@ -5349,12 +5349,12 @@
         <v>308</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="5" t="s">
         <v>307</v>
       </c>
@@ -5363,18 +5363,18 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="5" t="s">
         <v>305</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
+    <row r="40" spans="1:5" ht="28.5">
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="18" t="s">
         <v>304</v>
       </c>
@@ -5385,9 +5385,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
+    <row r="41" spans="1:5" ht="42.75">
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="18" t="s">
         <v>301</v>
       </c>
@@ -5398,9 +5398,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="105"/>
-      <c r="B42" s="105"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="5" t="s">
         <v>298</v>
       </c>
@@ -5409,9 +5409,9 @@
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="105"/>
-      <c r="B43" s="109" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="109"/>
+      <c r="B43" s="110" t="s">
         <v>296</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -5422,9 +5422,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="105"/>
-      <c r="B44" s="105"/>
+    <row r="44" spans="1:5">
+      <c r="A44" s="109"/>
+      <c r="B44" s="109"/>
       <c r="C44" s="5" t="s">
         <v>293</v>
       </c>
@@ -5433,9 +5433,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
+    <row r="45" spans="1:5">
+      <c r="A45" s="109"/>
+      <c r="B45" s="109"/>
       <c r="C45" s="5" t="s">
         <v>291</v>
       </c>
@@ -5444,9 +5444,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="105"/>
-      <c r="B46" s="105"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="109"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="5" t="s">
         <v>289</v>
       </c>
@@ -5455,9 +5455,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
+    <row r="47" spans="1:5" ht="42.75">
+      <c r="A47" s="109"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="16" t="s">
         <v>287</v>
       </c>
@@ -5466,9 +5466,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="105"/>
-      <c r="B48" s="109" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="109"/>
+      <c r="B48" s="110" t="s">
         <v>285</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -5479,9 +5479,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
+    <row r="49" spans="1:5">
+      <c r="A49" s="109"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
@@ -5490,9 +5490,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="105"/>
-      <c r="B50" s="105"/>
+    <row r="50" spans="1:5">
+      <c r="A50" s="109"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
@@ -5501,9 +5501,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="105"/>
-      <c r="B51" s="105"/>
+    <row r="51" spans="1:5">
+      <c r="A51" s="109"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
@@ -5512,9 +5512,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="105"/>
-      <c r="B52" s="105"/>
+    <row r="52" spans="1:5" ht="42.75">
+      <c r="A52" s="109"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="16" t="s">
         <v>280</v>
       </c>
@@ -5523,9 +5523,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="105"/>
-      <c r="B53" s="105" t="s">
+    <row r="53" spans="1:5" ht="28.5">
+      <c r="A53" s="109"/>
+      <c r="B53" s="109" t="s">
         <v>278</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -5538,9 +5538,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="105"/>
-      <c r="B54" s="105"/>
+    <row r="54" spans="1:5">
+      <c r="A54" s="109"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="16" t="s">
         <v>275</v>
       </c>
@@ -5551,9 +5551,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="105"/>
-      <c r="B55" s="105"/>
+    <row r="55" spans="1:5">
+      <c r="A55" s="109"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="5" t="s">
         <v>272</v>
       </c>
@@ -5562,9 +5562,9 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="105"/>
-      <c r="B56" s="105" t="s">
+    <row r="56" spans="1:5" ht="28.5">
+      <c r="A56" s="109"/>
+      <c r="B56" s="109" t="s">
         <v>270</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -5577,9 +5577,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="105"/>
-      <c r="B57" s="105"/>
+    <row r="57" spans="1:5">
+      <c r="A57" s="109"/>
+      <c r="B57" s="109"/>
       <c r="C57" s="16" t="s">
         <v>267</v>
       </c>
@@ -5590,9 +5590,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="105"/>
-      <c r="B58" s="105"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="109"/>
+      <c r="B58" s="109"/>
       <c r="C58" s="5" t="s">
         <v>264</v>
       </c>
@@ -5601,44 +5601,44 @@
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="23"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="110" t="s">
+    <row r="60" spans="1:5" ht="99.75">
+      <c r="A60" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="119" t="s">
         <v>261</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>260</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="111"/>
-      <c r="B61" s="114"/>
+    <row r="61" spans="1:5">
+      <c r="A61" s="117"/>
+      <c r="B61" s="120"/>
       <c r="C61" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E61" s="20"/>
     </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="57">
       <c r="A62" s="107"/>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="118" t="s">
         <v>258</v>
       </c>
       <c r="C62" s="18" t="s">
@@ -5651,9 +5651,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="42.75">
       <c r="A63" s="107"/>
-      <c r="B63" s="112"/>
+      <c r="B63" s="118"/>
       <c r="C63" s="5" t="s">
         <v>254</v>
       </c>
@@ -5664,9 +5664,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="42.75">
       <c r="A64" s="107"/>
-      <c r="B64" s="112"/>
+      <c r="B64" s="118"/>
       <c r="C64" s="32" t="s">
         <v>251</v>
       </c>
@@ -5677,9 +5677,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="42.75">
       <c r="A65" s="107"/>
-      <c r="B65" s="112"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="16" t="s">
         <v>248</v>
       </c>
@@ -5687,12 +5687,12 @@
         <v>247</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="57">
       <c r="A66" s="107"/>
-      <c r="B66" s="112"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="32" t="s">
         <v>246</v>
       </c>
@@ -5703,9 +5703,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="57">
       <c r="A67" s="107"/>
-      <c r="B67" s="112"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="5" t="s">
         <v>243</v>
       </c>
@@ -5713,67 +5713,67 @@
         <v>242</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="42.75">
       <c r="A68" s="107"/>
-      <c r="B68" s="112"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="28.5">
       <c r="A69" s="107"/>
-      <c r="B69" s="112"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="32" t="s">
         <v>239</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="71.25">
       <c r="A70" s="108"/>
-      <c r="B70" s="112"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D70" s="35" t="s">
         <v>238</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="62"/>
       <c r="B71" s="6"/>
       <c r="C71" s="74"/>
       <c r="D71" s="75"/>
       <c r="E71" s="76"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
       <c r="D72" s="29"/>
       <c r="E72" s="13"/>
     </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="100" t="s">
+    <row r="73" spans="1:5" ht="57">
+      <c r="A73" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="106" t="s">
+      <c r="B73" s="116" t="s">
         <v>236</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -5786,8 +5786,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="101"/>
+    <row r="74" spans="1:5">
+      <c r="A74" s="112"/>
       <c r="B74" s="107"/>
       <c r="C74" s="32" t="s">
         <v>231</v>
@@ -5797,19 +5797,19 @@
       </c>
       <c r="E74" s="32"/>
     </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A75" s="101"/>
+    <row r="75" spans="1:5" ht="42.75">
+      <c r="A75" s="112"/>
       <c r="B75" s="107"/>
       <c r="C75" s="32" t="s">
         <v>235</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="34" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="85.5">
+      <c r="A76" s="112"/>
       <c r="B76" s="107"/>
       <c r="C76" s="32" t="s">
         <v>229</v>
@@ -5818,11 +5818,11 @@
         <v>228</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A77" s="101"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="42.75">
+      <c r="A77" s="112"/>
       <c r="B77" s="107"/>
       <c r="C77" s="4" t="s">
         <v>227</v>
@@ -5831,11 +5831,11 @@
         <v>226</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="101"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="112"/>
       <c r="B78" s="107"/>
       <c r="C78" s="4" t="s">
         <v>225</v>
@@ -5845,34 +5845,34 @@
       </c>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A79" s="101"/>
+    <row r="79" spans="1:5" ht="57">
+      <c r="A79" s="112"/>
       <c r="B79" s="107"/>
       <c r="C79" s="31" t="s">
         <v>223</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E79" s="34" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A80" s="101"/>
+    <row r="80" spans="1:5" ht="42.75">
+      <c r="A80" s="112"/>
       <c r="B80" s="107"/>
       <c r="C80" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D80" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="E80" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="E80" s="34" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="101"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="112"/>
       <c r="B81" s="107"/>
       <c r="C81" s="31" t="s">
         <v>221</v>
@@ -5882,8 +5882,8 @@
       </c>
       <c r="E81" s="32"/>
     </row>
-    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A82" s="102"/>
+    <row r="82" spans="1:5" ht="57">
+      <c r="A82" s="113"/>
       <c r="B82" s="108"/>
       <c r="C82" s="4" t="s">
         <v>219</v>
@@ -5897,13 +5897,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5914,6 +5907,13 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5930,14 +5930,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
@@ -5948,8 +5948,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:3" ht="17.25">
+      <c r="A2" s="123" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -5959,8 +5959,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
+    <row r="3" spans="1:3" ht="17.25">
+      <c r="A3" s="123"/>
       <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
@@ -5968,8 +5968,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+    <row r="4" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A4" s="123" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -5979,8 +5979,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="115"/>
+    <row r="5" spans="1:3" ht="34.5">
+      <c r="A5" s="123"/>
       <c r="B5" s="48" t="s">
         <v>27</v>
       </c>
@@ -5988,8 +5988,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="115"/>
+    <row r="6" spans="1:3" ht="34.5">
+      <c r="A6" s="123"/>
       <c r="B6" s="48" t="s">
         <v>29</v>
       </c>
@@ -5997,8 +5997,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="115"/>
+    <row r="7" spans="1:3" ht="34.5">
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
@@ -6006,8 +6006,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
+    <row r="8" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A8" s="123" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -6017,8 +6017,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
+    <row r="9" spans="1:3" ht="17.25">
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
@@ -6026,8 +6026,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
+    <row r="10" spans="1:3" ht="34.5">
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>33</v>
       </c>
@@ -6035,26 +6035,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="116" t="s">
+    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
+      <c r="A11" s="121" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="121" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
+    <row r="12" spans="1:3" ht="17.25" hidden="1">
+      <c r="A12" s="122"/>
       <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="117"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="115" t="s">
+      <c r="C12" s="122"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="A13" s="123" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -6064,8 +6064,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
+    <row r="14" spans="1:3" ht="17.25">
+      <c r="A14" s="123"/>
       <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
@@ -6073,8 +6073,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
+    <row r="15" spans="1:3" ht="17.25">
+      <c r="A15" s="123"/>
       <c r="B15" s="48" t="s">
         <v>48</v>
       </c>
@@ -6082,8 +6082,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
+    <row r="16" spans="1:3" ht="34.5">
+      <c r="A16" s="123"/>
       <c r="B16" s="48" t="s">
         <v>50</v>
       </c>
@@ -6091,8 +6091,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
+    <row r="17" spans="1:3" ht="34.5">
+      <c r="A17" s="123"/>
       <c r="B17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6100,8 +6100,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="115" t="s">
+    <row r="18" spans="1:3" ht="17.25">
+      <c r="A18" s="123" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -6111,8 +6111,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
+    <row r="19" spans="1:3" ht="17.25">
+      <c r="A19" s="123"/>
       <c r="B19" s="48" t="s">
         <v>44</v>
       </c>
@@ -6120,8 +6120,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="123"/>
       <c r="B20" s="48" t="s">
         <v>46</v>
       </c>
@@ -6129,8 +6129,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="123"/>
       <c r="B21" s="48" t="s">
         <v>48</v>
       </c>
@@ -6138,8 +6138,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
+    <row r="22" spans="1:3" ht="51.75">
+      <c r="A22" s="123"/>
       <c r="B22" s="48" t="s">
         <v>54</v>
       </c>
@@ -6147,8 +6147,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="115" t="s">
+    <row r="23" spans="1:3" ht="34.5">
+      <c r="A23" s="123" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -6158,43 +6158,43 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="123"/>
       <c r="B24" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="22"/>
     </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
+    <row r="25" spans="1:3" ht="17.25">
+      <c r="A25" s="123"/>
       <c r="B25" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="22"/>
     </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="123"/>
       <c r="B26" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="22"/>
     </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="115"/>
+    <row r="27" spans="1:3" ht="17.25">
+      <c r="A27" s="123"/>
       <c r="B27" s="48" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="22"/>
     </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="115"/>
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="123"/>
       <c r="B28" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
     </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="115" t="s">
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="123" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -6202,42 +6202,42 @@
       </c>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
+    <row r="30" spans="1:3" ht="17.25">
+      <c r="A30" s="123"/>
       <c r="B30" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="22"/>
     </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
+    <row r="31" spans="1:3" ht="17.25">
+      <c r="A31" s="123"/>
       <c r="B31" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="22"/>
     </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
+    <row r="32" spans="1:3" ht="17.25">
+      <c r="A32" s="123"/>
       <c r="B32" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="22"/>
     </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
+    <row r="33" spans="1:3" ht="17.25">
+      <c r="A33" s="123"/>
       <c r="B33" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22"/>
     </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
+    <row r="34" spans="1:3" ht="17.25">
+      <c r="A34" s="123"/>
       <c r="B34" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="22"/>
     </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="17.25">
       <c r="A35" s="48" t="s">
         <v>64</v>
       </c>
@@ -6248,8 +6248,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="115" t="s">
+    <row r="36" spans="1:3" ht="34.5">
+      <c r="A36" s="123" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="48" t="s">
@@ -6259,8 +6259,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="115"/>
+    <row r="37" spans="1:3" ht="34.5">
+      <c r="A37" s="123"/>
       <c r="B37" s="48" t="s">
         <v>72</v>
       </c>
@@ -6268,8 +6268,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
+    <row r="38" spans="1:3" ht="34.5">
+      <c r="A38" s="123"/>
       <c r="B38" s="48" t="s">
         <v>73</v>
       </c>
@@ -6279,16 +6279,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
